--- a/py/T01_agl_coef_antoine.xlsx
+++ b/py/T01_agl_coef_antoine.xlsx
@@ -29,6 +29,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,9 +89,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -116,14 +121,14 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>0.1248</v>
+      <c r="B1" s="1" t="n">
+        <v>0.08080734</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -131,7 +136,7 @@
         <v>395</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.2151</v>
+        <v>0.16125326</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -139,7 +144,7 @@
         <v>410</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.3528</v>
+        <v>0.38513014</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -147,7 +152,7 @@
         <v>425</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.5543</v>
+        <v>0.568025</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -155,7 +160,7 @@
         <v>440</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.8389</v>
+        <v>0.87803932</v>
       </c>
     </row>
   </sheetData>
